--- a/문서/기획/밸런스 패치2.xlsx
+++ b/문서/기획/밸런스 패치2.xlsx
@@ -685,9 +685,6 @@
     <t>5-30-1-200-500</t>
   </si>
   <si>
-    <t>ex)1-1-2-100-12</t>
-  </si>
-  <si>
     <t>1-3-2-1A-16</t>
   </si>
   <si>
@@ -903,6 +900,10 @@
   </si>
   <si>
     <t>기본 탭 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)1-1-2-100-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1854,16 +1855,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1873,36 +1874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1939,6 +1910,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2281,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M407" sqref="M407"/>
     </sheetView>
   </sheetViews>
@@ -2303,70 +2304,70 @@
   <sheetData>
     <row r="1" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21"/>
-      <c r="B1" s="85" t="s">
-        <v>260</v>
+      <c r="B1" s="87" t="s">
+        <v>259</v>
       </c>
       <c r="C1" s="86"/>
-      <c r="D1" s="87" t="s">
-        <v>259</v>
+      <c r="D1" s="88" t="s">
+        <v>258</v>
       </c>
       <c r="E1" s="86"/>
-      <c r="F1" s="88" t="s">
-        <v>258</v>
+      <c r="F1" s="85" t="s">
+        <v>257</v>
       </c>
       <c r="G1" s="86"/>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="85" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="86"/>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="86"/>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="85" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>256</v>
-      </c>
       <c r="E2" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="77" t="s">
-        <v>256</v>
-      </c>
       <c r="G2" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="H2" s="77" t="s">
-        <v>256</v>
-      </c>
       <c r="I2" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="J2" s="77" t="s">
-        <v>256</v>
-      </c>
       <c r="K2" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="77" t="s">
-        <v>256</v>
-      </c>
       <c r="M2" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N2" s="74"/>
       <c r="O2" s="74"/>
@@ -22817,7 +22818,7 @@
         <v>181991915161600</v>
       </c>
       <c r="M388" s="5">
-        <f t="shared" ref="M388:M402" si="83">M387+POWER(2,ROUNDDOWN(($A387+800)/50,0))*ROUNDUP(($A387+800)/50,0)</f>
+        <f t="shared" ref="M388:M401" si="83">M387+POWER(2,ROUNDDOWN(($A387+800)/50,0))*ROUNDUP(($A387+800)/50,0)</f>
         <v>16458313856</v>
       </c>
     </row>
@@ -33557,7 +33558,7 @@
         <v>1154</v>
       </c>
       <c r="B1156" s="6">
-        <f t="shared" ref="B1156:B1219" si="106">$B1155+POWER(2,ROUNDUP(A1156/50,0))*ROUNDUP(A1156/25,0)*5*A1155</f>
+        <f t="shared" ref="B1156:B1202" si="106">$B1155+POWER(2,ROUNDUP(A1156/50,0))*ROUNDUP(A1156/25,0)*5*A1155</f>
         <v>215069816061160</v>
       </c>
       <c r="C1156" s="5">
@@ -34183,7 +34184,7 @@
   <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K3" sqref="K3:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34196,23 +34197,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="87" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="91"/>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="86"/>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="88" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="91"/>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="87" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="86"/>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="88" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="86"/>
@@ -34304,7 +34305,7 @@
       </c>
       <c r="N3" s="39"/>
       <c r="R3" s="68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -34343,7 +34344,7 @@
       </c>
       <c r="N4" s="39"/>
       <c r="R4" s="68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -34382,7 +34383,7 @@
       </c>
       <c r="N5" s="39"/>
       <c r="R5" s="68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -34420,10 +34421,10 @@
         <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="R6" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -34461,10 +34462,10 @@
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="R7" s="68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -34502,12 +34503,12 @@
         <v>60</v>
       </c>
       <c r="M8" s="89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="R8" s="68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -34548,7 +34549,7 @@
       <c r="N9" s="89"/>
       <c r="O9" s="89"/>
       <c r="R9" s="68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -34589,7 +34590,7 @@
       <c r="N10" s="89"/>
       <c r="O10" s="89"/>
       <c r="R10" s="68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -34630,7 +34631,7 @@
         <v>69</v>
       </c>
       <c r="R11" s="68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -34668,7 +34669,7 @@
         <v>100</v>
       </c>
       <c r="M12" s="89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N12" s="90"/>
       <c r="O12" s="90"/>
@@ -35449,42 +35450,42 @@
     </row>
     <row r="34" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R34" s="68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R35" s="68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R36" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R37" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R38" s="68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R39" s="68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R40" s="68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R41" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="18:18" x14ac:dyDescent="0.3">
@@ -35599,42 +35600,42 @@
     </row>
     <row r="64" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R64" s="68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R65" s="68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R66" s="68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R67" s="68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R68" s="68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R69" s="68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R70" s="68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R71" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="18:18" x14ac:dyDescent="0.3">
@@ -36049,6 +36050,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36080,10 +36082,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -36097,10 +36099,10 @@
         <v>89396</v>
       </c>
       <c r="E2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="72" t="s">
         <v>222</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -36114,7 +36116,7 @@
         <v>2249256</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -36128,7 +36130,7 @@
         <v>49095072</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -36139,7 +36141,7 @@
         <v>995300768</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -36150,7 +36152,7 @@
         <v>19276886144</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -36178,13 +36180,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -36270,12 +36272,12 @@
     </row>
     <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
@@ -36301,7 +36303,7 @@
       <c r="B11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="98" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="52">
@@ -36316,7 +36318,7 @@
       <c r="B12" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="109"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="51">
         <v>0.12</v>
       </c>
@@ -36329,7 +36331,7 @@
       <c r="B13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="109"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="51">
         <v>0.1</v>
       </c>
@@ -36341,7 +36343,7 @@
       <c r="B14" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="109"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="51">
         <v>0.04</v>
       </c>
@@ -36353,19 +36355,19 @@
       <c r="B15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="110"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="53">
         <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="57" t="s">
@@ -36380,7 +36382,7 @@
       <c r="D18" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="110" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36391,13 +36393,13 @@
       <c r="B19" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="101" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="52">
         <v>0.03</v>
       </c>
-      <c r="E19" s="98"/>
+      <c r="E19" s="110"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -36406,7 +36408,7 @@
       <c r="B20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="112"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="51">
         <v>0.05</v>
       </c>
@@ -36418,7 +36420,7 @@
       <c r="B21" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="112"/>
+      <c r="C21" s="102"/>
       <c r="D21" s="51">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -36430,7 +36432,7 @@
       <c r="B22" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="112"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="51">
         <v>0.05</v>
       </c>
@@ -36442,52 +36444,52 @@
       <c r="B23" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="113"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="53">
         <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="113"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="97"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36515,18 +36517,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="79">
         <v>100</v>
@@ -36537,13 +36539,13 @@
     </row>
     <row r="4" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -36552,18 +36554,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" s="79">
         <v>50</v>
@@ -36574,13 +36576,13 @@
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -36589,18 +36591,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B11" s="84">
         <v>2000000</v>
@@ -36611,13 +36613,13 @@
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -36626,18 +36628,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="82" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B15" s="79">
         <v>100000000</v>
@@ -36648,13 +36650,13 @@
     </row>
     <row r="16" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -36663,18 +36665,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" s="79">
         <v>12000000000</v>
@@ -36685,13 +36687,13 @@
     </row>
     <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -36700,18 +36702,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="79">
         <v>500000000000</v>
@@ -36722,13 +36724,13 @@
     </row>
     <row r="24" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/문서/기획/밸런스 패치2.xlsx
+++ b/문서/기획/밸런스 패치2.xlsx
@@ -1876,6 +1876,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1910,36 +1940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2283,7 +2283,7 @@
   <dimension ref="A1:T1202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M407" sqref="M407"/>
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2296,7 +2296,7 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="26.75" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.75" customWidth="1"/>
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
@@ -3543,8 +3543,7 @@
         <v>98</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="12"/>
-        <v>1315</v>
+        <v>25</v>
       </c>
       <c r="E25" s="30">
         <f t="shared" si="3"/>
@@ -23548,8 +23547,8 @@
         <v>49095072</v>
       </c>
       <c r="J402" s="6">
-        <f t="shared" si="80"/>
-        <v>9142206208000</v>
+        <f>J401+(POWER(I4022,ROUNDUP(($A402+600)/50,0))*ROUNDUP(($A402+600)/25,0)*5*($A401+600))/2</f>
+        <v>9037453465600</v>
       </c>
       <c r="K402" s="33">
         <f t="shared" si="81"/>
@@ -36180,11 +36179,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
       <c r="H1" t="s">
         <v>229</v>
       </c>
@@ -36272,12 +36271,12 @@
     </row>
     <row r="8" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
@@ -36303,7 +36302,7 @@
       <c r="B11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="108" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="52">
@@ -36318,7 +36317,7 @@
       <c r="B12" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="99"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="51">
         <v>0.12</v>
       </c>
@@ -36331,7 +36330,7 @@
       <c r="B13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="51">
         <v>0.1</v>
       </c>
@@ -36343,7 +36342,7 @@
       <c r="B14" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="99"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="51">
         <v>0.04</v>
       </c>
@@ -36355,19 +36354,19 @@
       <c r="B15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="53">
         <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="57" t="s">
@@ -36382,7 +36381,7 @@
       <c r="D18" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="98" t="s">
         <v>48</v>
       </c>
     </row>
@@ -36393,13 +36392,13 @@
       <c r="B19" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="111" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="52">
         <v>0.03</v>
       </c>
-      <c r="E19" s="110"/>
+      <c r="E19" s="98"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -36408,7 +36407,7 @@
       <c r="B20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="102"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="51">
         <v>0.05</v>
       </c>
@@ -36420,7 +36419,7 @@
       <c r="B21" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="51">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -36432,7 +36431,7 @@
       <c r="B22" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="102"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="51">
         <v>0.05</v>
       </c>
@@ -36444,52 +36443,52 @@
       <c r="B23" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="103"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="53">
         <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="112"/>
-      <c r="D26" s="113"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="109"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C19:C23"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C19:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
